--- a/NJ/Mass_onlyrS+T/signbased_log_gap.xlsx
+++ b/NJ/Mass_onlyrS+T/signbased_log_gap.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="signbased_log_gap" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -531,8 +531,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -878,7 +879,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,10 +895,10 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
@@ -963,7 +964,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -995,7 +996,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5">
@@ -1148,6 +1149,18 @@
       <c r="B11">
         <v>0</v>
       </c>
+      <c r="C11">
+        <f>N3+N6+N5</f>
+        <v>79.25</v>
+      </c>
+      <c r="D11">
+        <f>N8+N11+N9+N5</f>
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <f>N7+N11+N9+N5</f>
+        <v>6</v>
+      </c>
       <c r="J11" t="s">
         <v>9</v>
       </c>
@@ -1165,6 +1178,14 @@
       <c r="C12">
         <v>0</v>
       </c>
+      <c r="D12">
+        <f>N3+N6+N9+N11+N8</f>
+        <v>78.25</v>
+      </c>
+      <c r="E12">
+        <f>N7+N11+N9+N6+N3</f>
+        <v>76.25</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1234,15 +1255,15 @@
       </c>
       <c r="C20">
         <f>C2-C11</f>
-        <v>77</v>
+        <v>-2.25</v>
       </c>
       <c r="D20">
         <f t="shared" ref="D20:G21" si="0">D2-D11</f>
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
@@ -1262,11 +1283,11 @@
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>-1.25</v>
       </c>
       <c r="E21">
         <f t="shared" ref="E21:G21" si="1">E3-E12</f>
-        <v>79</v>
+        <v>2.75</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
